--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,6 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Ndp</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H2">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I2">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>3.439948991115001</v>
+        <v>5.701062819696</v>
       </c>
       <c r="R2">
-        <v>13.75979596446</v>
+        <v>22.804251278784</v>
       </c>
       <c r="S2">
-        <v>0.3617973202205014</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="T2">
-        <v>0.2929136668980183</v>
+        <v>0.485871843331092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H3">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I3">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>1.228940016066</v>
+        <v>2.223931819809</v>
       </c>
       <c r="R3">
-        <v>7.373640096396001</v>
+        <v>13.343590918854</v>
       </c>
       <c r="S3">
-        <v>0.1292540109381972</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="T3">
-        <v>0.1569674408399828</v>
+        <v>0.2843011610923331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H4">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I4">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.012536397894</v>
+        <v>0.02416543359166667</v>
       </c>
       <c r="R4">
-        <v>0.07521838736400001</v>
+        <v>0.14499260155</v>
       </c>
       <c r="S4">
-        <v>0.001318518145176621</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="T4">
-        <v>0.001601222410408719</v>
+        <v>0.003089240761436898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H5">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I5">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,524 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>2.000459585832</v>
+        <v>2.660467367147</v>
       </c>
       <c r="R5">
-        <v>8.001838343328</v>
+        <v>10.641869468588</v>
       </c>
       <c r="S5">
-        <v>0.2103987353396299</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="T5">
-        <v>0.170340302801238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.102282</v>
-      </c>
-      <c r="H6">
-        <v>0.204564</v>
-      </c>
-      <c r="I6">
-        <v>0.9257602133635839</v>
-      </c>
-      <c r="J6">
-        <v>0.8926260303441536</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N6">
-        <v>61.789525</v>
-      </c>
-      <c r="O6">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P6">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q6">
-        <v>2.10665206535</v>
-      </c>
-      <c r="R6">
-        <v>12.6399123921</v>
-      </c>
-      <c r="S6">
-        <v>0.2215675505216043</v>
-      </c>
-      <c r="T6">
-        <v>0.2690739817365463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.102282</v>
-      </c>
-      <c r="H7">
-        <v>0.204564</v>
-      </c>
-      <c r="I7">
-        <v>0.9257602133635839</v>
-      </c>
-      <c r="J7">
-        <v>0.8926260303441536</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.397139</v>
-      </c>
-      <c r="O7">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P7">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q7">
-        <v>0.013540057066</v>
-      </c>
-      <c r="R7">
-        <v>0.081240342396</v>
-      </c>
-      <c r="S7">
-        <v>0.00142407819847457</v>
-      </c>
-      <c r="T7">
-        <v>0.001729415657959343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.024607</v>
-      </c>
-      <c r="I8">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J8">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>33.6320075</v>
-      </c>
-      <c r="N8">
-        <v>67.264015</v>
-      </c>
-      <c r="O8">
-        <v>0.3908110491225105</v>
-      </c>
-      <c r="P8">
-        <v>0.3281482467916435</v>
-      </c>
-      <c r="Q8">
-        <v>0.2758609361841667</v>
-      </c>
-      <c r="R8">
-        <v>1.655165617105</v>
-      </c>
-      <c r="S8">
-        <v>0.02901372890200908</v>
-      </c>
-      <c r="T8">
-        <v>0.03523457989362516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.024607</v>
-      </c>
-      <c r="I9">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J9">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>12.015213</v>
-      </c>
-      <c r="N9">
-        <v>36.045639</v>
-      </c>
-      <c r="O9">
-        <v>0.1396193194224409</v>
-      </c>
-      <c r="P9">
-        <v>0.1758490515669409</v>
-      </c>
-      <c r="Q9">
-        <v>0.09855278209700001</v>
-      </c>
-      <c r="R9">
-        <v>0.886975038873</v>
-      </c>
-      <c r="S9">
-        <v>0.01036530848424362</v>
-      </c>
-      <c r="T9">
-        <v>0.0188816107269581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.024607</v>
-      </c>
-      <c r="I10">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J10">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.122567</v>
-      </c>
-      <c r="N10">
-        <v>0.367701</v>
-      </c>
-      <c r="O10">
-        <v>0.001424254495001488</v>
-      </c>
-      <c r="P10">
-        <v>0.001793833426290924</v>
-      </c>
-      <c r="Q10">
-        <v>0.001005335389666667</v>
-      </c>
-      <c r="R10">
-        <v>0.009048018507000001</v>
-      </c>
-      <c r="S10">
-        <v>0.0001057363498248669</v>
-      </c>
-      <c r="T10">
-        <v>0.0001926110158822048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.024607</v>
-      </c>
-      <c r="I11">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J11">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>19.558276</v>
-      </c>
-      <c r="N11">
-        <v>39.116552</v>
-      </c>
-      <c r="O11">
-        <v>0.2272713088146052</v>
-      </c>
-      <c r="P11">
-        <v>0.1908305348607893</v>
-      </c>
-      <c r="Q11">
-        <v>0.1604234991773333</v>
-      </c>
-      <c r="R11">
-        <v>0.962540995064</v>
-      </c>
-      <c r="S11">
-        <v>0.0168725734749753</v>
-      </c>
-      <c r="T11">
-        <v>0.02049023205955135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.024607</v>
-      </c>
-      <c r="I12">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J12">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N12">
-        <v>61.789525</v>
-      </c>
-      <c r="O12">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P12">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q12">
-        <v>0.1689394268527778</v>
-      </c>
-      <c r="R12">
-        <v>1.520454841675</v>
-      </c>
-      <c r="S12">
-        <v>0.01776823786422217</v>
-      </c>
-      <c r="T12">
-        <v>0.03236690458043055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.024607</v>
-      </c>
-      <c r="I13">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J13">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.397139</v>
-      </c>
-      <c r="O13">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P13">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q13">
-        <v>0.001085822152555555</v>
-      </c>
-      <c r="R13">
-        <v>0.009772399373</v>
-      </c>
-      <c r="S13">
-        <v>0.0001142015611409754</v>
-      </c>
-      <c r="T13">
-        <v>0.0002080313793991393</v>
+        <v>0.2267377548151379</v>
       </c>
     </row>
   </sheetData>
